--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/Lahgtp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/Lahgtp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD70C73-D563-4AEB-AF79-2BF536F6992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B756EE0B-FAD5-43CD-8D36-36FC4E6FC2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>VARCHAR2</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>AS400建物明細資料檔</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -479,6 +476,9 @@
   <si>
     <t>2</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -865,9 +865,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -905,9 +905,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,26 +940,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,26 +975,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1188,7 +1154,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1209,10 +1175,10 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -1237,7 +1203,7 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>12</v>
@@ -1317,13 +1283,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="22">
         <v>4</v>
@@ -1336,13 +1302,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="22">
         <v>1</v>
@@ -1355,13 +1321,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="22">
         <v>2</v>
@@ -1374,13 +1340,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="22">
         <v>7</v>
@@ -1393,13 +1359,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="22">
         <v>2</v>
@@ -1412,13 +1378,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" s="22">
         <v>6</v>
@@ -1431,13 +1397,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="22">
         <v>200</v>
@@ -1450,13 +1416,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="22">
         <v>5</v>
@@ -1469,19 +1435,19 @@
         <v>9</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="22">
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="23"/>
     </row>
@@ -1490,19 +1456,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="22">
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>19</v>
@@ -1513,19 +1479,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="22">
         <v>6</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>19</v>
@@ -1536,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="22">
         <v>20</v>
@@ -1555,13 +1521,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="22">
         <v>11</v>
@@ -1574,13 +1540,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="22">
         <v>11</v>
@@ -1593,13 +1559,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="22">
         <v>11</v>
@@ -1612,13 +1578,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="22">
         <v>1</v>
@@ -1631,13 +1597,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="22">
         <v>1</v>
@@ -1650,13 +1616,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="22">
         <v>20</v>
@@ -1669,13 +1635,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="22">
         <v>4</v>
@@ -1688,13 +1654,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" s="22">
         <v>2</v>
@@ -1707,10 +1673,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="20" t="str">
         <f>$D$26</f>
@@ -1727,13 +1693,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E30" s="22">
         <v>200</v>
@@ -1746,13 +1712,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="22">
         <v>200</v>
@@ -1765,13 +1731,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" s="22">
         <v>20</v>
@@ -1784,13 +1750,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="22">
         <v>20</v>
@@ -1803,13 +1769,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="22">
         <v>20</v>
@@ -1822,13 +1788,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" s="22">
         <v>20</v>
@@ -1841,13 +1807,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" s="22">
         <v>8</v>
@@ -1860,19 +1826,19 @@
         <v>29</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" s="22">
         <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G37" s="23"/>
     </row>
@@ -1881,13 +1847,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E38" s="22">
         <v>20</v>
@@ -1900,13 +1866,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="22">
         <v>200</v>
@@ -1919,13 +1885,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="22">
         <v>200</v>
@@ -1938,13 +1904,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" s="22">
         <v>8</v>
@@ -1957,13 +1923,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" s="22">
         <v>11</v>
@@ -1976,13 +1942,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" s="22">
         <v>8</v>
@@ -1995,13 +1961,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="22">
         <v>10</v>
@@ -2014,13 +1980,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" s="22">
         <v>20</v>
@@ -2033,13 +1999,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" s="22">
         <v>3</v>
@@ -2052,13 +2018,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="22">
         <v>20</v>
@@ -2071,13 +2037,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" s="22">
         <v>7</v>
@@ -2090,13 +2056,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="D49" s="20" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="3" t="s">
@@ -2109,10 +2075,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>20</v>
@@ -2130,13 +2096,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>80</v>
-      </c>
       <c r="D51" s="20" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="3" t="s">
@@ -2149,10 +2115,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>20</v>
